--- a/data/2022_daily_Malaysia.xlsx
+++ b/data/2022_daily_Malaysia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\source\repos\steveteoh.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393399C6-BFDD-4F52-9B47-5FBADD5A192D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A1640C-6F86-4955-AFF4-2BD5822208BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{248F3845-387B-4976-A27A-26E6EFA90DBF}"/>
   </bookViews>
@@ -652,6 +652,47 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="18"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-64A7-403D-8E9B-BF11BB2AB59D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="20"/>
               <c:spPr>
                 <a:noFill/>
@@ -693,6 +734,47 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="21"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-64A7-403D-8E9B-BF11BB2AB59D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="24"/>
               <c:spPr>
                 <a:noFill/>
@@ -730,6 +812,129 @@
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-3869-4912-BC62-C9CA42E12D03}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-64A7-403D-8E9B-BF11BB2AB59D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-64A7-403D-8E9B-BF11BB2AB59D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4AF2-4E36-8118-B55CFAD0B56E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -794,22 +999,22 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Feb 2022'!$B$1:$Z$1</c:f>
+              <c:f>'Feb 2022'!$B$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1-Feb Tue</c:v>
                 </c:pt>
@@ -884,16 +1089,25 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25-Feb Fri</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26-Feb Sat</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27-Feb Sun</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28-Feb Mon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feb 2022'!$B$2:$Z$2</c:f>
+              <c:f>'Feb 2022'!$B$2:$AC$2</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>41175</c:v>
                 </c:pt>
@@ -968,6 +1182,15 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>294578</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>297217</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>321787</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>298794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,6 +1497,38 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0554103217952697E-2"/>
+                  <c:y val="-4.4545639403365655E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-64A7-403D-8E9B-BF11BB2AB59D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4AF2-4E36-8118-B55CFAD0B56E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1333,9 +1588,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Feb 2022'!$B$1:$Z$1</c:f>
+              <c:f>'Feb 2022'!$B$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1-Feb Tue</c:v>
                 </c:pt>
@@ -1410,16 +1665,25 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25-Feb Fri</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26-Feb Sat</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27-Feb Sun</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28-Feb Mon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feb 2022'!$B$3:$Z$3</c:f>
+              <c:f>'Feb 2022'!$B$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1494,6 +1758,15 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>78293</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24570</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-22993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,10 +1805,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1572,7 +1842,7 @@
         <c:axId val="1982492800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300000"/>
+          <c:max val="350000"/>
           <c:min val="-100000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7803,8 +8073,8 @@
       <xdr:rowOff>45719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>446313</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
@@ -8050,14 +8320,14 @@
           <cell r="Z2">
             <v>31978</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>30880</v>
+          </cell>
+          <cell r="AB2">
+            <v>33012</v>
+          </cell>
+          <cell r="AC2">
+            <v>29902</v>
           </cell>
         </row>
       </sheetData>
@@ -8441,14 +8711,14 @@
           <cell r="Z2">
             <v>49014</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>48500</v>
+          </cell>
+          <cell r="AB2">
+            <v>51305</v>
+          </cell>
+          <cell r="AC2">
+            <v>47273</v>
           </cell>
         </row>
       </sheetData>
@@ -8832,14 +9102,14 @@
           <cell r="Z2">
             <v>3712</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>3902</v>
+          </cell>
+          <cell r="AB2">
+            <v>4319</v>
+          </cell>
+          <cell r="AC2">
+            <v>4109</v>
           </cell>
         </row>
       </sheetData>
@@ -9223,14 +9493,14 @@
           <cell r="Z2">
             <v>85998</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>86481</v>
+          </cell>
+          <cell r="AB2">
+            <v>94424</v>
+          </cell>
+          <cell r="AC2">
+            <v>88967</v>
           </cell>
         </row>
       </sheetData>
@@ -9614,14 +9884,14 @@
           <cell r="Z2">
             <v>5631</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>6022</v>
+          </cell>
+          <cell r="AB2">
+            <v>6583</v>
+          </cell>
+          <cell r="AC2">
+            <v>6237</v>
           </cell>
         </row>
       </sheetData>
@@ -10005,14 +10275,14 @@
           <cell r="Z2">
             <v>3521</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>3806</v>
+          </cell>
+          <cell r="AB2">
+            <v>4108</v>
+          </cell>
+          <cell r="AC2">
+            <v>3893</v>
           </cell>
         </row>
       </sheetData>
@@ -10396,14 +10666,14 @@
           <cell r="Z2">
             <v>29012</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>29371</v>
+          </cell>
+          <cell r="AB2">
+            <v>31396</v>
+          </cell>
+          <cell r="AC2">
+            <v>28384</v>
           </cell>
         </row>
       </sheetData>
@@ -10787,14 +11057,14 @@
           <cell r="Z2">
             <v>18335</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>18131</v>
+          </cell>
+          <cell r="AB2">
+            <v>19289</v>
+          </cell>
+          <cell r="AC2">
+            <v>17812</v>
           </cell>
         </row>
       </sheetData>
@@ -11178,14 +11448,14 @@
           <cell r="Z2">
             <v>7253</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>7424</v>
+          </cell>
+          <cell r="AB2">
+            <v>8038</v>
+          </cell>
+          <cell r="AC2">
+            <v>7315</v>
           </cell>
         </row>
       </sheetData>
@@ -11569,14 +11839,14 @@
           <cell r="Z2">
             <v>13329</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>14242</v>
+          </cell>
+          <cell r="AB2">
+            <v>15657</v>
+          </cell>
+          <cell r="AC2">
+            <v>14888</v>
           </cell>
         </row>
       </sheetData>
@@ -11960,14 +12230,14 @@
           <cell r="Z2">
             <v>14299</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>14526</v>
+          </cell>
+          <cell r="AB2">
+            <v>15881</v>
+          </cell>
+          <cell r="AC2">
+            <v>14840</v>
           </cell>
         </row>
       </sheetData>
@@ -12351,14 +12621,14 @@
           <cell r="Z2">
             <v>22957</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>23288</v>
+          </cell>
+          <cell r="AB2">
+            <v>25434</v>
+          </cell>
+          <cell r="AC2">
+            <v>23464</v>
           </cell>
         </row>
       </sheetData>
@@ -12742,14 +13012,14 @@
           <cell r="Z2">
             <v>7172</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>8222</v>
+          </cell>
+          <cell r="AB2">
+            <v>9712</v>
+          </cell>
+          <cell r="AC2">
+            <v>9207</v>
           </cell>
         </row>
       </sheetData>
@@ -13133,14 +13403,14 @@
           <cell r="Z2">
             <v>2367</v>
           </cell>
-          <cell r="AA2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AB2" t="e">
-            <v>#REF!</v>
-          </cell>
-          <cell r="AC2" t="e">
-            <v>#REF!</v>
+          <cell r="AA2">
+            <v>2422</v>
+          </cell>
+          <cell r="AB2">
+            <v>2629</v>
+          </cell>
+          <cell r="AC2">
+            <v>2503</v>
           </cell>
         </row>
       </sheetData>
@@ -13736,8 +14006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5002E712-F943-4E18-ACA8-77CA42F550B5}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13753,6 +14023,8 @@
     <col min="23" max="23" width="11" customWidth="1"/>
     <col min="24" max="25" width="10.6640625" customWidth="1"/>
     <col min="26" max="26" width="11.21875" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -13945,17 +14217,17 @@
         <f>'[1]Feb 2022'!Z$2+'[2]Feb 2022'!Z$2+'[3]Feb 2022'!Z$2+'[4]Feb 2022'!Z$2+'[5]Feb 2022'!Z$2+'[6]Feb 2022'!Z$2+'[7]Feb 2022'!Z$2+'[8]Feb 2022'!Z$2+'[9]Feb 2022'!Z$2+'[10]Feb 2022'!Z$2+'[11]Feb 2022'!Z$2+'[12]Feb 2022'!Z$2+'[13]Feb 2022'!Z$2+'[14]Feb 2022'!Z$2</f>
         <v>294578</v>
       </c>
-      <c r="AA2" s="1" t="e">
+      <c r="AA2" s="1">
         <f>'[1]Feb 2022'!AA$2+'[2]Feb 2022'!AA$2+'[3]Feb 2022'!AA$2+'[4]Feb 2022'!AA$2+'[5]Feb 2022'!AA$2+'[6]Feb 2022'!AA$2+'[7]Feb 2022'!AA$2+'[8]Feb 2022'!AA$2+'[9]Feb 2022'!AA$2+'[10]Feb 2022'!AA$2+'[11]Feb 2022'!AA$2+'[12]Feb 2022'!AA$2+'[13]Feb 2022'!AA$2+'[14]Feb 2022'!AA$2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB2" s="1" t="e">
+        <v>297217</v>
+      </c>
+      <c r="AB2" s="1">
         <f>'[1]Feb 2022'!AB$2+'[2]Feb 2022'!AB$2+'[3]Feb 2022'!AB$2+'[4]Feb 2022'!AB$2+'[5]Feb 2022'!AB$2+'[6]Feb 2022'!AB$2+'[7]Feb 2022'!AB$2+'[8]Feb 2022'!AB$2+'[9]Feb 2022'!AB$2+'[10]Feb 2022'!AB$2+'[11]Feb 2022'!AB$2+'[12]Feb 2022'!AB$2+'[13]Feb 2022'!AB$2+'[14]Feb 2022'!AB$2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC2" s="1" t="e">
+        <v>321787</v>
+      </c>
+      <c r="AC2" s="1">
         <f>'[1]Feb 2022'!AC$2+'[2]Feb 2022'!AC$2+'[3]Feb 2022'!AC$2+'[4]Feb 2022'!AC$2+'[5]Feb 2022'!AC$2+'[6]Feb 2022'!AC$2+'[7]Feb 2022'!AC$2+'[8]Feb 2022'!AC$2+'[9]Feb 2022'!AC$2+'[10]Feb 2022'!AC$2+'[11]Feb 2022'!AC$2+'[12]Feb 2022'!AC$2+'[13]Feb 2022'!AC$2+'[14]Feb 2022'!AC$2</f>
-        <v>#REF!</v>
+        <v>298794</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -14061,17 +14333,17 @@
         <f t="shared" si="0"/>
         <v>78293</v>
       </c>
-      <c r="AA3" s="1" t="e">
+      <c r="AA3" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB3" s="1" t="e">
+        <v>2639</v>
+      </c>
+      <c r="AB3" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC3" s="1" t="e">
+        <v>24570</v>
+      </c>
+      <c r="AC3" s="1">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>-22993</v>
       </c>
     </row>
   </sheetData>

--- a/data/2022_daily_Malaysia.xlsx
+++ b/data/2022_daily_Malaysia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\source\repos\steveteoh.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A1640C-6F86-4955-AFF4-2BD5822208BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7FA978-7FBE-4056-AF17-1D2C227D72C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{248F3845-387B-4976-A27A-26E6EFA90DBF}"/>
   </bookViews>
@@ -14006,8 +14006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5002E712-F943-4E18-ACA8-77CA42F550B5}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/2022_daily_Malaysia.xlsx
+++ b/data/2022_daily_Malaysia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\source\repos\steveteoh.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7FA978-7FBE-4056-AF17-1D2C227D72C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825DA321-720A-4EDA-9F96-0EA59CB90B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{248F3845-387B-4976-A27A-26E6EFA90DBF}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
   <si>
     <t>Net increase/decrease</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>30-Nov Tue</t>
+  </si>
+  <si>
+    <t>1-Mar Tue</t>
+  </si>
+  <si>
+    <t>2-Mar Wed</t>
   </si>
 </sst>
 </file>
@@ -1012,9 +1018,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Feb 2022'!$B$1:$AC$1</c:f>
+              <c:f>'Feb 2022'!$B$1:$AE$1</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1-Feb Tue</c:v>
                 </c:pt>
@@ -1098,16 +1104,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>28-Feb Mon</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1-Mar Tue</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2-Mar Wed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feb 2022'!$B$2:$AC$2</c:f>
+              <c:f>'Feb 2022'!$B$2:$AE$2</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>41175</c:v>
                 </c:pt>
@@ -1191,6 +1203,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>298794</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>336607</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>308181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,9 +1606,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Feb 2022'!$B$1:$AC$1</c:f>
+              <c:f>'Feb 2022'!$B$1:$AE$1</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>1-Feb Tue</c:v>
                 </c:pt>
@@ -1674,16 +1692,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>28-Feb Mon</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1-Mar Tue</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2-Mar Wed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feb 2022'!$B$3:$AC$3</c:f>
+              <c:f>'Feb 2022'!$B$3:$AE$3</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1767,6 +1791,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-22993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37813</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-28426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8329,6 +8359,12 @@
           <cell r="AC2">
             <v>29902</v>
           </cell>
+          <cell r="AD2">
+            <v>32648</v>
+          </cell>
+          <cell r="AE2">
+            <v>30382</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -8720,6 +8756,12 @@
           <cell r="AC2">
             <v>47273</v>
           </cell>
+          <cell r="AD2">
+            <v>48841</v>
+          </cell>
+          <cell r="AE2">
+            <v>43790</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -9111,6 +9153,12 @@
           <cell r="AC2">
             <v>4109</v>
           </cell>
+          <cell r="AD2">
+            <v>5090</v>
+          </cell>
+          <cell r="AE2">
+            <v>4808</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -9502,6 +9550,12 @@
           <cell r="AC2">
             <v>88967</v>
           </cell>
+          <cell r="AD2">
+            <v>103509</v>
+          </cell>
+          <cell r="AE2">
+            <v>93800</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -9893,6 +9947,12 @@
           <cell r="AC2">
             <v>6237</v>
           </cell>
+          <cell r="AD2">
+            <v>7301</v>
+          </cell>
+          <cell r="AE2">
+            <v>6922</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -10284,6 +10344,12 @@
           <cell r="AC2">
             <v>3893</v>
           </cell>
+          <cell r="AD2">
+            <v>4282</v>
+          </cell>
+          <cell r="AE2">
+            <v>3964</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -10675,6 +10741,12 @@
           <cell r="AC2">
             <v>28384</v>
           </cell>
+          <cell r="AD2">
+            <v>31656</v>
+          </cell>
+          <cell r="AE2">
+            <v>28350</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -11066,6 +11138,12 @@
           <cell r="AC2">
             <v>17812</v>
           </cell>
+          <cell r="AD2">
+            <v>18708</v>
+          </cell>
+          <cell r="AE2">
+            <v>16497</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -11457,6 +11535,12 @@
           <cell r="AC2">
             <v>7315</v>
           </cell>
+          <cell r="AD2">
+            <v>8503</v>
+          </cell>
+          <cell r="AE2">
+            <v>7829</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -11848,6 +11932,12 @@
           <cell r="AC2">
             <v>14888</v>
           </cell>
+          <cell r="AD2">
+            <v>17399</v>
+          </cell>
+          <cell r="AE2">
+            <v>15730</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -12239,6 +12329,12 @@
           <cell r="AC2">
             <v>14840</v>
           </cell>
+          <cell r="AD2">
+            <v>17414</v>
+          </cell>
+          <cell r="AE2">
+            <v>16840</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -12630,6 +12726,12 @@
           <cell r="AC2">
             <v>23464</v>
           </cell>
+          <cell r="AD2">
+            <v>26174</v>
+          </cell>
+          <cell r="AE2">
+            <v>23876</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -13021,6 +13123,12 @@
           <cell r="AC2">
             <v>9207</v>
           </cell>
+          <cell r="AD2">
+            <v>12230</v>
+          </cell>
+          <cell r="AE2">
+            <v>12666</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -13411,6 +13519,12 @@
           </cell>
           <cell r="AC2">
             <v>2503</v>
+          </cell>
+          <cell r="AD2">
+            <v>2852</v>
+          </cell>
+          <cell r="AE2">
+            <v>2727</v>
           </cell>
         </row>
       </sheetData>
@@ -14004,10 +14118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5002E712-F943-4E18-ACA8-77CA42F550B5}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AC3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14027,7 +14141,7 @@
     <col min="28" max="28" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -14112,8 +14226,14 @@
       <c r="AC1" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14229,8 +14349,16 @@
         <f>'[1]Feb 2022'!AC$2+'[2]Feb 2022'!AC$2+'[3]Feb 2022'!AC$2+'[4]Feb 2022'!AC$2+'[5]Feb 2022'!AC$2+'[6]Feb 2022'!AC$2+'[7]Feb 2022'!AC$2+'[8]Feb 2022'!AC$2+'[9]Feb 2022'!AC$2+'[10]Feb 2022'!AC$2+'[11]Feb 2022'!AC$2+'[12]Feb 2022'!AC$2+'[13]Feb 2022'!AC$2+'[14]Feb 2022'!AC$2</f>
         <v>298794</v>
       </c>
+      <c r="AD2" s="1">
+        <f>'[1]Feb 2022'!AD$2+'[2]Feb 2022'!AD$2+'[3]Feb 2022'!AD$2+'[4]Feb 2022'!AD$2+'[5]Feb 2022'!AD$2+'[6]Feb 2022'!AD$2+'[7]Feb 2022'!AD$2+'[8]Feb 2022'!AD$2+'[9]Feb 2022'!AD$2+'[10]Feb 2022'!AD$2+'[11]Feb 2022'!AD$2+'[12]Feb 2022'!AD$2+'[13]Feb 2022'!AD$2+'[14]Feb 2022'!AD$2</f>
+        <v>336607</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>'[1]Feb 2022'!AE$2+'[2]Feb 2022'!AE$2+'[3]Feb 2022'!AE$2+'[4]Feb 2022'!AE$2+'[5]Feb 2022'!AE$2+'[6]Feb 2022'!AE$2+'[7]Feb 2022'!AE$2+'[8]Feb 2022'!AE$2+'[9]Feb 2022'!AE$2+'[10]Feb 2022'!AE$2+'[11]Feb 2022'!AE$2+'[12]Feb 2022'!AE$2+'[13]Feb 2022'!AE$2+'[14]Feb 2022'!AE$2</f>
+        <v>308181</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14242,7 +14370,7 @@
         <v>-3153</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:AC3" si="0">D2-C2</f>
+        <f t="shared" ref="D3:AE3" si="0">D2-C2</f>
         <v>-3703</v>
       </c>
       <c r="E3" s="1">
@@ -14345,9 +14473,17 @@
         <f t="shared" si="0"/>
         <v>-22993</v>
       </c>
+      <c r="AD3" s="1">
+        <f t="shared" si="0"/>
+        <v>37813</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" si="0"/>
+        <v>-28426</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:AC3">
+  <conditionalFormatting sqref="B3:AE3">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
